--- a/fuentes/contenidos/grado07/guion05/Escaleta_CN_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta_CN_07_05_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_07_05_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -740,7 +735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,75 +952,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,6 +1001,75 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,7 +1131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,7 +1166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1382,9 +1377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,14 +1391,14 @@
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="11" style="42" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11" style="19" customWidth="1"/>
     <col min="10" max="10" width="50.5703125" style="13" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="13" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="16" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
@@ -1412,94 +1407,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1511,7 +1506,7 @@
       <c r="C3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1520,20 +1515,20 @@
       <c r="F3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="46"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="49"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1546,7 +1541,7 @@
       <c r="C4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1555,20 +1550,20 @@
       <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="46"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="49"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="38"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1581,37 +1576,37 @@
       <c r="C5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>129</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="23" t="s">
         <v>149</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="38" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="8">
@@ -1620,10 +1615,10 @@
       <c r="R5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="S5" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="28" t="s">
         <v>152</v>
       </c>
       <c r="U5" s="8" t="s">
@@ -1640,37 +1635,37 @@
       <c r="C6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="17">
         <v>2</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="23" t="s">
         <v>155</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="38" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="8">
@@ -1679,10 +1674,10 @@
       <c r="R6" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="28" t="s">
         <v>158</v>
       </c>
       <c r="U6" s="8" t="s">
@@ -1699,37 +1694,37 @@
       <c r="C7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="17">
         <v>3</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="23" t="s">
         <v>161</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="8">
@@ -1738,10 +1733,10 @@
       <c r="R7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="28" t="s">
         <v>163</v>
       </c>
       <c r="U7" s="8" t="s">
@@ -1758,37 +1753,37 @@
       <c r="C8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="22" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="17">
         <v>4</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="23" t="s">
         <v>165</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="38" t="s">
+      <c r="O8" s="30"/>
+      <c r="P8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="8">
@@ -1797,10 +1792,10 @@
       <c r="R8" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T8" s="51" t="s">
+      <c r="T8" s="28" t="s">
         <v>166</v>
       </c>
       <c r="U8" s="8" t="s">
@@ -1817,37 +1812,37 @@
       <c r="C9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="20" t="s">
         <v>131</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="17">
         <v>5</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="23" t="s">
         <v>172</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="38" t="s">
+      <c r="O9" s="30"/>
+      <c r="P9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="8">
@@ -1856,10 +1851,10 @@
       <c r="R9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T9" s="51" t="s">
+      <c r="T9" s="28" t="s">
         <v>173</v>
       </c>
       <c r="U9" s="8" t="s">
@@ -1876,37 +1871,37 @@
       <c r="C10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="20" t="s">
         <v>131</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="17">
         <v>6</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="23" t="s">
         <v>170</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="38" t="s">
+      <c r="O10" s="30"/>
+      <c r="P10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="8">
@@ -1915,10 +1910,10 @@
       <c r="R10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S10" s="50" t="s">
+      <c r="S10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T10" s="51" t="s">
+      <c r="T10" s="28" t="s">
         <v>184</v>
       </c>
       <c r="U10" s="8" t="s">
@@ -1935,27 +1930,27 @@
       <c r="C11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="22" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="46"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="49"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="38"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
       <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1968,37 +1963,37 @@
       <c r="C12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="20" t="s">
         <v>175</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="17">
         <v>7</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="23" t="s">
         <v>177</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="38" t="s">
+      <c r="O12" s="30"/>
+      <c r="P12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="8">
@@ -2007,10 +2002,10 @@
       <c r="R12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="S12" s="50" t="s">
+      <c r="S12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="51" t="s">
+      <c r="T12" s="28" t="s">
         <v>181</v>
       </c>
       <c r="U12" s="8" t="s">
@@ -2027,37 +2022,37 @@
       <c r="C13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="20" t="s">
         <v>175</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="17">
         <v>8</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="23" t="s">
         <v>180</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="38" t="s">
+      <c r="O13" s="30"/>
+      <c r="P13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="8">
@@ -2066,10 +2061,10 @@
       <c r="R13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="51" t="s">
+      <c r="T13" s="28" t="s">
         <v>182</v>
       </c>
       <c r="U13" s="8" t="s">
@@ -2086,37 +2081,37 @@
       <c r="C14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="20" t="s">
         <v>175</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="17">
         <v>9</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="23" t="s">
         <v>176</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="38" t="s">
+      <c r="O14" s="30"/>
+      <c r="P14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="8">
@@ -2125,10 +2120,10 @@
       <c r="R14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S14" s="50" t="s">
+      <c r="S14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T14" s="51" t="s">
+      <c r="T14" s="28" t="s">
         <v>183</v>
       </c>
       <c r="U14" s="8" t="s">
@@ -2145,27 +2140,27 @@
       <c r="C15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="22" t="s">
         <v>137</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="46"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="49"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="38"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="51"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28"/>
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2178,37 +2173,37 @@
       <c r="C16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="20" t="s">
         <v>132</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="17">
         <v>10</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="23" t="s">
         <v>187</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" s="26" t="s">
         <v>5</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="38" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="8">
@@ -2217,10 +2212,10 @@
       <c r="R16" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="S16" s="50" t="s">
+      <c r="S16" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="51" t="s">
+      <c r="T16" s="28" t="s">
         <v>186</v>
       </c>
       <c r="U16" s="8" t="s">
@@ -2237,37 +2232,37 @@
       <c r="C17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="20" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="17">
         <v>11</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="23" t="s">
         <v>189</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="38" t="s">
+      <c r="O17" s="30"/>
+      <c r="P17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="8">
@@ -2276,10 +2271,10 @@
       <c r="R17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S17" s="50" t="s">
+      <c r="S17" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T17" s="51" t="s">
+      <c r="T17" s="28" t="s">
         <v>190</v>
       </c>
       <c r="U17" s="8" t="s">
@@ -2296,37 +2291,37 @@
       <c r="C18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="20" t="s">
         <v>132</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="17">
         <v>12</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="23" t="s">
         <v>191</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="49" t="s">
+      <c r="L18" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="38" t="s">
+      <c r="O18" s="30"/>
+      <c r="P18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="8">
@@ -2335,10 +2330,10 @@
       <c r="R18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="S18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T18" s="51" t="s">
+      <c r="T18" s="28" t="s">
         <v>192</v>
       </c>
       <c r="U18" s="8" t="s">
@@ -2355,29 +2350,29 @@
       <c r="C19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="22" t="s">
         <v>147</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="46"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="38"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="51"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="28"/>
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2390,7 +2385,7 @@
       <c r="C20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -2399,30 +2394,30 @@
       <c r="F20" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="17">
         <v>13</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="23" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="L20" s="26" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="53" t="s">
+      <c r="O20" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="8">
@@ -2431,10 +2426,10 @@
       <c r="R20" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S20" s="50" t="s">
+      <c r="S20" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T20" s="51" t="s">
+      <c r="T20" s="28" t="s">
         <v>147</v>
       </c>
       <c r="U20" s="8" t="s">
@@ -2451,7 +2446,7 @@
       <c r="C21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2460,30 +2455,30 @@
       <c r="F21" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="17">
         <v>14</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="23" t="s">
         <v>200</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="53"/>
-      <c r="P21" s="38" t="s">
+      <c r="O21" s="30"/>
+      <c r="P21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="8">
@@ -2492,10 +2487,10 @@
       <c r="R21" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S21" s="50" t="s">
+      <c r="S21" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T21" s="51" t="s">
+      <c r="T21" s="28" t="s">
         <v>201</v>
       </c>
       <c r="U21" s="8" t="s">
@@ -2512,7 +2507,7 @@
       <c r="C22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2521,32 +2516,32 @@
       <c r="F22" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="17">
         <v>15</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="23" t="s">
         <v>236</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="8">
@@ -2555,10 +2550,10 @@
       <c r="R22" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S22" s="50" t="s">
+      <c r="S22" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T22" s="51" t="s">
+      <c r="T22" s="28" t="s">
         <v>202</v>
       </c>
       <c r="U22" s="8" t="s">
@@ -2575,7 +2570,7 @@
       <c r="C23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2584,20 +2579,20 @@
       <c r="F23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="46"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="38"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="51"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="28"/>
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2610,7 +2605,7 @@
       <c r="C24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2619,20 +2614,20 @@
       <c r="F24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="46"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="49"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="38"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="15"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="51"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28"/>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2645,7 +2640,7 @@
       <c r="C25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2654,30 +2649,30 @@
       <c r="F25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="17">
         <v>16</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="23" t="s">
         <v>205</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="L25" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="53"/>
-      <c r="P25" s="38" t="s">
+      <c r="O25" s="30"/>
+      <c r="P25" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="8">
@@ -2686,10 +2681,10 @@
       <c r="R25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S25" s="50" t="s">
+      <c r="S25" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T25" s="51" t="s">
+      <c r="T25" s="28" t="s">
         <v>206</v>
       </c>
       <c r="U25" s="8" t="s">
@@ -2706,7 +2701,7 @@
       <c r="C26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2715,32 +2710,32 @@
       <c r="F26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="17">
         <v>17</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="46" t="s">
+      <c r="J26" s="23" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="52" t="s">
+      <c r="N26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="8">
@@ -2749,10 +2744,10 @@
       <c r="R26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S26" s="50" t="s">
+      <c r="S26" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T26" s="51" t="s">
+      <c r="T26" s="28" t="s">
         <v>207</v>
       </c>
       <c r="U26" s="8" t="s">
@@ -2769,37 +2764,37 @@
       <c r="C27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>144</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="17">
         <v>18</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="23" t="s">
         <v>211</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="53"/>
-      <c r="P27" s="38" t="s">
+      <c r="O27" s="30"/>
+      <c r="P27" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="8">
@@ -2808,10 +2803,10 @@
       <c r="R27" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="S27" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T27" s="51" t="s">
+      <c r="T27" s="28" t="s">
         <v>212</v>
       </c>
       <c r="U27" s="8" t="s">
@@ -2828,37 +2823,37 @@
       <c r="C28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="17">
         <v>19</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="46" t="s">
+      <c r="J28" s="23" t="s">
         <v>209</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="49" t="s">
+      <c r="L28" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="53"/>
-      <c r="P28" s="38" t="s">
+      <c r="O28" s="30"/>
+      <c r="P28" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="8">
@@ -2867,10 +2862,10 @@
       <c r="R28" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S28" s="50" t="s">
+      <c r="S28" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T28" s="51" t="s">
+      <c r="T28" s="28" t="s">
         <v>213</v>
       </c>
       <c r="U28" s="8" t="s">
@@ -2887,35 +2882,35 @@
       <c r="C29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="17">
         <v>20</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="23" t="s">
         <v>234</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="49" t="s">
+      <c r="L29" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="O29" s="53"/>
-      <c r="P29" s="38" t="s">
+      <c r="O29" s="30"/>
+      <c r="P29" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="8">
@@ -2924,10 +2919,10 @@
       <c r="R29" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S29" s="50" t="s">
+      <c r="S29" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T29" s="51" t="s">
+      <c r="T29" s="28" t="s">
         <v>230</v>
       </c>
       <c r="U29" s="8" t="s">
@@ -2944,35 +2939,35 @@
       <c r="C30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="20" t="s">
         <v>145</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="17">
         <v>21</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="23" t="s">
         <v>233</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="49" t="s">
+      <c r="L30" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="O30" s="53"/>
-      <c r="P30" s="38" t="s">
+      <c r="O30" s="30"/>
+      <c r="P30" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="8">
@@ -2981,10 +2976,10 @@
       <c r="R30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S30" s="50" t="s">
+      <c r="S30" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T30" s="51" t="s">
+      <c r="T30" s="28" t="s">
         <v>231</v>
       </c>
       <c r="U30" s="8" t="s">
@@ -3001,37 +2996,37 @@
       <c r="C31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="20" t="s">
         <v>145</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="17">
         <v>22</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="23" t="s">
         <v>215</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="49" t="s">
+      <c r="L31" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="52" t="s">
+      <c r="N31" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="P31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="8">
@@ -3040,10 +3035,10 @@
       <c r="R31" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S31" s="50" t="s">
+      <c r="S31" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T31" s="51" t="s">
+      <c r="T31" s="28" t="s">
         <v>214</v>
       </c>
       <c r="U31" s="8" t="s">
@@ -3060,35 +3055,35 @@
       <c r="C32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="20" t="s">
         <v>145</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="17">
         <v>23</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="23" t="s">
         <v>219</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="49" t="s">
+      <c r="L32" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="52" t="s">
+      <c r="N32" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="O32" s="53"/>
-      <c r="P32" s="38" t="s">
+      <c r="O32" s="30"/>
+      <c r="P32" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="8">
@@ -3097,10 +3092,10 @@
       <c r="R32" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S32" s="50" t="s">
+      <c r="S32" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T32" s="51" t="s">
+      <c r="T32" s="28" t="s">
         <v>218</v>
       </c>
       <c r="U32" s="8" t="s">
@@ -3117,35 +3112,35 @@
       <c r="C33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="20" t="s">
         <v>146</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="17">
         <v>24</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="46" t="s">
+      <c r="I33" s="18"/>
+      <c r="J33" s="23" t="s">
         <v>223</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="49" t="s">
+      <c r="L33" s="26" t="s">
         <v>10</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="38"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="51"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="28"/>
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3158,33 +3153,33 @@
       <c r="C34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="20" t="s">
         <v>146</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="17">
         <v>25</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="46" t="s">
+      <c r="I34" s="18"/>
+      <c r="J34" s="23" t="s">
         <v>224</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="49" t="s">
+      <c r="L34" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="P34" s="38" t="s">
+      <c r="O34" s="30"/>
+      <c r="P34" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="8">
@@ -3193,10 +3188,10 @@
       <c r="R34" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S34" s="50" t="s">
+      <c r="S34" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T34" s="51" t="s">
+      <c r="T34" s="28" t="s">
         <v>227</v>
       </c>
       <c r="U34" s="8" t="s">
@@ -3213,33 +3208,33 @@
       <c r="C35" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="20" t="s">
         <v>146</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="17">
         <v>26</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="46" t="s">
+      <c r="I35" s="18"/>
+      <c r="J35" s="23" t="s">
         <v>225</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="L35" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O35" s="53"/>
-      <c r="P35" s="55" t="s">
+      <c r="O35" s="30"/>
+      <c r="P35" s="32" t="s">
         <v>20</v>
       </c>
       <c r="Q35" s="8">
@@ -3248,10 +3243,10 @@
       <c r="R35" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="S35" s="50" t="s">
+      <c r="S35" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T35" s="51" t="s">
+      <c r="T35" s="28" t="s">
         <v>228</v>
       </c>
       <c r="U35" s="8" t="s">
@@ -3262,851 +3257,851 @@
       <c r="A36" s="4"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="10"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="46"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="49"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="38"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="15"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="51"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="28"/>
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="43"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="10"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="46"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="49"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="38"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="15"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="51"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="28"/>
       <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="10"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="46"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="49"/>
+      <c r="L38" s="26"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="38"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="51"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="28"/>
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="43"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="10"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="46"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="49"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="38"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="51"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="28"/>
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="43"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="10"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="46"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="49"/>
+      <c r="L40" s="26"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="38"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="15"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="51"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="28"/>
       <c r="U40" s="8"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="43"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="10"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="46"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="49"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="38"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="51"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="28"/>
       <c r="U41" s="8"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="43"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="10"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="46"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="49"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="38"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="15"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="51"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="28"/>
       <c r="U42" s="8"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="43"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="10"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="46"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="49"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="38"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="15"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="51"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="28"/>
       <c r="U43" s="8"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="10"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="46"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="49"/>
+      <c r="L44" s="26"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="38"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="15"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="51"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="28"/>
       <c r="U44" s="8"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="46"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="49"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="38"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="15"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="51"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="28"/>
       <c r="U45" s="8"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="43"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="10"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="46"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="49"/>
+      <c r="L46" s="26"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="38"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="15"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="51"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="28"/>
       <c r="U46" s="8"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="43"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="10"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="46"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="49"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="38"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="15"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="51"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="28"/>
       <c r="U47" s="8"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="43"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="10"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="46"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="49"/>
+      <c r="L48" s="26"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="38"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="15"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="51"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="28"/>
       <c r="U48" s="8"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="43"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="10"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="46"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="49"/>
+      <c r="L49" s="26"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="38"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="15"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="51"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="28"/>
       <c r="U49" s="8"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="10"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="46"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="49"/>
+      <c r="L50" s="26"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="38"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="15"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="51"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="28"/>
       <c r="U50" s="8"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="43"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="10"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="46"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="49"/>
+      <c r="L51" s="26"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="38"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="15"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="51"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="28"/>
       <c r="U51" s="8"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="43"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="10"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="46"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="49"/>
+      <c r="L52" s="26"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="38"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="15"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="51"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="28"/>
       <c r="U52" s="8"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="43"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="10"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="46"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="49"/>
+      <c r="L53" s="26"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="38"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="15"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="51"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="28"/>
       <c r="U53" s="8"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="43"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="10"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="46"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="49"/>
+      <c r="L54" s="26"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="38"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="51"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="28"/>
       <c r="U54" s="8"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="43"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="10"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="46"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="49"/>
+      <c r="L55" s="26"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="38"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="15"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="51"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="28"/>
       <c r="U55" s="8"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="43"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="10"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="46"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="49"/>
+      <c r="L56" s="26"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="38"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="15"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="51"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="28"/>
       <c r="U56" s="8"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="43"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="10"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="46"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="49"/>
+      <c r="L57" s="26"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="38"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="15"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="51"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="28"/>
       <c r="U57" s="8"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="43"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="10"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="46"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="49"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="38"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="15"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="51"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="28"/>
       <c r="U58" s="8"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="43"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="10"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="46"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="49"/>
+      <c r="L59" s="26"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="38"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="15"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="51"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="28"/>
       <c r="U59" s="8"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="10"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="46"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="49"/>
+      <c r="L60" s="26"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="38"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="15"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="51"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="28"/>
       <c r="U60" s="8"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="43"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="10"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="46"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="49"/>
+      <c r="L61" s="26"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="38"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="15"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="51"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="28"/>
       <c r="U61" s="8"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="43"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="10"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="46"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="49"/>
+      <c r="L62" s="26"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="38"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="15"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="51"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="28"/>
       <c r="U62" s="8"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="43"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="10"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="46"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="49"/>
+      <c r="L63" s="26"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="38"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="15"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="51"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="28"/>
       <c r="U63" s="8"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="43"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="10"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="46"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="49"/>
+      <c r="L64" s="26"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="38"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="15"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="51"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="28"/>
       <c r="U64" s="8"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="43"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="10"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="46"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="49"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="38"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="15"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="51"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="28"/>
       <c r="U65" s="8"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="43"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="10"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="46"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="49"/>
+      <c r="L66" s="26"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="38"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="15"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="51"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="28"/>
       <c r="U66" s="8"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="43"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="10"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="46"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="49"/>
+      <c r="L67" s="26"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="38"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="15"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="51"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="28"/>
       <c r="U67" s="8"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="43"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="10"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="46"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="23"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="49"/>
+      <c r="L68" s="26"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="38"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="15"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="51"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="28"/>
       <c r="U68" s="8"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="43"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="10"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="46"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="49"/>
+      <c r="L69" s="26"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="38"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="15"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="51"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="28"/>
       <c r="U69" s="8"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="43"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="10"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="46"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="49"/>
+      <c r="L70" s="26"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="38"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="15"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="51"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="28"/>
       <c r="U70" s="8"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="43"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="10"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="46"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="49"/>
+      <c r="L71" s="26"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="38"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="15"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="51"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="28"/>
       <c r="U71" s="8"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="43"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="10"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="46"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="49"/>
+      <c r="L72" s="26"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="38"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="15"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="51"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="28"/>
       <c r="U72" s="8"/>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4471,16 +4466,7 @@
     <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U35">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4495,6 +4481,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
